--- a/2025/List of validations_24_AGR.xlsx
+++ b/2025/List of validations_24_AGR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\24-AGR-24\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B15DF73-68A5-4828-827D-77C2C49A0A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB74369-3C61-40C2-B726-8817FAB98117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
   <si>
     <t>CONTROL</t>
   </si>
@@ -499,7 +499,10 @@
     <t>Tab. 1.1.1, Daca Rd.7 COL. 1 ≠ 0, atunci Tab. 1.1, Rd.3 COL.1 ≠ 0 și invers</t>
   </si>
   <si>
-    <t>Tab. 1.1.1 Daca rd.20 COL.1 ≠ 0, atunci Tab. 1.1 , rd.3 COL.2 ≠ 0</t>
+    <t>27-054.1</t>
+  </si>
+  <si>
+    <t>Tab. 1.1.1 Daca rd.20 COL.1 ≠ 0, atunci Tab. 1.1 , rd.3 COL.2 ≠ 0 si invers</t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,9 +1751,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="1"/>
